--- a/QMCO.xlsx
+++ b/QMCO.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59367A-AF13-4CAE-8C64-07C97EDBB579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FE10B-0CD9-47D0-8273-3744A01158B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2290" windowWidth="28800" windowHeight="15370" xr2:uid="{B0FB3B0A-7631-4391-8152-324ABCCD3A1E}"/>
+    <workbookView xWindow="-27255" yWindow="855" windowWidth="27210" windowHeight="17880" activeTab="1" xr2:uid="{B0FB3B0A-7631-4391-8152-324ABCCD3A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -54,19 +55,109 @@
   </si>
   <si>
     <t>EV</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>Warrants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,17 +186,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9EC2ED14-D4E4-40CC-A00A-21DC4C2365F4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,24 +537,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F431726-AA94-4D77-B0E8-F5657280B022}">
   <dimension ref="L2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>57.44</v>
-      </c>
-    </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.25">
+        <v>45.71</v>
+      </c>
+    </row>
+    <row r="3" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,16 +562,16 @@
         <v>4.7926900000000003</v>
       </c>
     </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>275.29211359999999</v>
-      </c>
-    </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.25">
+        <v>219.07385990000003</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,7 +579,7 @@
         <v>25.574000000000002</v>
       </c>
     </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,14 +588,396 @@
         <v>104.131</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>353.84911360000001</v>
-      </c>
+        <v>297.63085990000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F6E5C-D339-40CE-AA37-E07089AD3504}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="5"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
+        <f>17.287+0.256</f>
+        <v>17.542999999999999</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
+        <v>61.363999999999997</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
+        <f>18.467+8.513</f>
+        <v>26.979999999999997</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <v>3.88</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
+        <v>10.988</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
+        <f>1.207+12.969</f>
+        <v>14.176</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
+        <v>9.3439999999999994</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
+        <v>19.849</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <f>SUM(L18:L26)</f>
+        <v>173.08899999999997</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="29" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
+        <v>31.509</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
+        <v>16.091000000000001</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <f>74.802+36.759</f>
+        <v>111.56100000000001</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
+        <f>5+65.132</f>
+        <v>70.132000000000005</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
+        <v>25.042999999999999</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
